--- a/src/main/resources/present/verb/present_verb.xlsx
+++ b/src/main/resources/present/verb/present_verb.xlsx
@@ -546,7 +546,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/src/main/resources/present/verb/present_verb.xlsx
+++ b/src/main/resources/present/verb/present_verb.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Cardinal Numbers" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,6 +22,7 @@
     <sheet name="Nationalities" sheetId="12" state="visible" r:id="rId13"/>
     <sheet name="Naming the Months of the year" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="Professions" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="test" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="1594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="1595">
   <si>
     <t xml:space="preserve">One</t>
   </si>
@@ -4815,6 +4816,9 @@
   </si>
   <si>
     <t xml:space="preserve">escritor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
   </si>
 </sst>
 </file>
@@ -4825,7 +4829,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4932,6 +4936,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -5087,7 +5098,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5105,6 +5116,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5206,7 +5221,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+      <selection pane="topLeft" activeCell="F18" activeCellId="1" sqref="B1 F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5538,7 +5553,7 @@
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+      <selection pane="topLeft" activeCell="D32" activeCellId="1" sqref="B1 D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5870,7 +5885,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
+      <selection pane="topLeft" activeCell="A37" activeCellId="1" sqref="B1 A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5958,7 +5973,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+      <selection pane="topLeft" activeCell="B32" activeCellId="1" sqref="B1 B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6218,7 +6233,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
+      <selection pane="topLeft" activeCell="A26" activeCellId="1" sqref="B1 A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6392,10 +6407,10 @@
   <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B96" activeCellId="0" sqref="B96"/>
+      <selection pane="topLeft" activeCell="B96" activeCellId="1" sqref="B1 B96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -7132,6 +7147,38 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -7145,10 +7192,10 @@
   <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N32" activeCellId="0" sqref="N32"/>
+      <selection pane="topLeft" activeCell="N32" activeCellId="1" sqref="B1 N32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -7618,7 +7665,7 @@
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J32" activeCellId="0" sqref="J32"/>
+      <selection pane="topLeft" activeCell="J32" activeCellId="1" sqref="B1 J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8000,7 +8047,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+      <selection pane="topLeft" activeCell="D30" activeCellId="1" sqref="B1 D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8084,7 +8131,7 @@
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
+      <selection pane="topLeft" activeCell="L16" activeCellId="1" sqref="B1 L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8597,8 +8644,8 @@
   </sheetPr>
   <dimension ref="A1:B170"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="B1 A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9988,7 +10035,7 @@
   <dimension ref="A1:F173"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A173" activeCellId="0" sqref="A173"/>
+      <selection pane="topLeft" activeCell="A173" activeCellId="1" sqref="B1 A173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11403,7 +11450,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="B1 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11487,7 +11534,7 @@
   <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A107" activeCellId="0" sqref="A107"/>
+      <selection pane="topLeft" activeCell="A107" activeCellId="1" sqref="B1 A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
